--- a/results/TumorTexture/2_2/model_evaluation_results.xlsx
+++ b/results/TumorTexture/2_2/model_evaluation_results.xlsx
@@ -19,6 +19,13 @@
     <sheet name="11_features" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="12_features" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="13_features" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="14_features" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="15_features" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="16_features" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="17_features" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="18_features" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="19_features" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="20_features" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -510,27 +517,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.54 (0.48, 0.60)</t>
+          <t>0.62 (0.56, 0.68)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.74 (0.68, 0.79)</t>
+          <t>0.76 (0.71, 0.82)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.31 (0.25, 0.37)</t>
+          <t>0.38 (0.32, 0.44)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.73 (0.68, 0.79)</t>
+          <t>0.76 (0.71, 0.81)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.35 (0.29, 0.41)</t>
+          <t>0.40 (0.34, 0.47)</t>
         </is>
       </c>
     </row>
@@ -542,27 +549,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.51 (0.44, 0.57)</t>
+          <t>0.65 (0.59, 0.71)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.40 (0.34, 0.46)</t>
+          <t>0.46 (0.40, 0.52)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.60 (0.54, 0.66)</t>
+          <t>0.85 (0.81, 0.90)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.29 (0.23, 0.34)</t>
+          <t>0.89 (0.85, 0.93)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.17 (0.12, 0.21)</t>
+          <t>0.38 (0.32, 0.45)</t>
         </is>
       </c>
     </row>
@@ -574,27 +581,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.63 (0.57, 0.69)</t>
+          <t>0.64 (0.58, 0.70)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.81 (0.76, 0.86)</t>
+          <t>0.71 (0.65, 0.76)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.19 (0.14, 0.24)</t>
+          <t>0.41 (0.35, 0.48)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.72 (0.66, 0.77)</t>
+          <t>0.76 (0.70, 0.81)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.11 (0.07, 0.15)</t>
+          <t>0.36 (0.30, 0.42)</t>
         </is>
       </c>
     </row>
@@ -606,27 +613,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.62 (0.56, 0.69)</t>
+          <t>0.64 (0.58, 0.70)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.94 (0.91, 0.97)</t>
+          <t>0.97 (0.94, 0.99)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.15 (0.10, 0.19)</t>
+          <t>0.01 (-0.00, 0.03)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.74 (0.68, 0.79)</t>
+          <t>0.71 (0.66, 0.77)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.58 (0.52, 0.64)</t>
+          <t>0.07 (0.04, 0.10)</t>
         </is>
       </c>
     </row>
@@ -689,27 +696,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.61 (0.55, 0.67)</t>
+          <t>0.68 (0.62, 0.74)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.79 (0.74, 0.84)</t>
+          <t>0.93 (0.90, 0.96)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.38 (0.32, 0.45)</t>
+          <t>0.16 (0.12, 0.21)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.77 (0.71, 0.82)</t>
+          <t>0.74 (0.69, 0.80)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.44 (0.38, 0.50)</t>
+          <t>0.40 (0.34, 0.46)</t>
         </is>
       </c>
     </row>
@@ -721,27 +728,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.40 (0.34, 0.46)</t>
+          <t>0.61 (0.55, 0.67)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.40 (0.34, 0.46)</t>
+          <t>0.51 (0.44, 0.57)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.60 (0.54, 0.66)</t>
+          <t>0.61 (0.54, 0.67)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.29 (0.23, 0.34)</t>
+          <t>0.77 (0.72, 0.82)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.17 (0.12, 0.21)</t>
+          <t>0.32 (0.26, 0.38)</t>
         </is>
       </c>
     </row>
@@ -753,27 +760,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.61 (0.55, 0.67)</t>
+          <t>0.63 (0.57, 0.69)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.63 (0.57, 0.69)</t>
+          <t>0.62 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.55 (0.48, 0.61)</t>
+          <t>0.53 (0.47, 0.59)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.78 (0.72, 0.83)</t>
+          <t>0.77 (0.72, 0.82)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.39 (0.32, 0.45)</t>
+          <t>0.35 (0.29, 0.41)</t>
         </is>
       </c>
     </row>
@@ -785,27 +792,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.64 (0.58, 0.70)</t>
+          <t>0.66 (0.60, 0.72)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.85 (0.81, 0.90)</t>
+          <t>0.85 (0.80, 0.89)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.27 (0.21, 0.32)</t>
+          <t>0.28 (0.22, 0.34)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.75 (0.69, 0.80)</t>
+          <t>0.75 (0.70, 0.80)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.44 (0.38, 0.50)</t>
+          <t>0.45 (0.38, 0.51)</t>
         </is>
       </c>
     </row>
@@ -868,27 +875,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.59 (0.53, 0.65)</t>
+          <t>0.66 (0.60, 0.72)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.79 (0.74, 0.84)</t>
+          <t>0.91 (0.88, 0.95)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.38 (0.32, 0.44)</t>
+          <t>0.19 (0.14, 0.24)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.77 (0.71, 0.82)</t>
+          <t>0.74 (0.69, 0.80)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.44 (0.37, 0.50)</t>
+          <t>0.37 (0.31, 0.43)</t>
         </is>
       </c>
     </row>
@@ -900,27 +907,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.42 (0.36, 0.49)</t>
+          <t>0.61 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.40 (0.34, 0.46)</t>
+          <t>0.51 (0.44, 0.57)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.60 (0.54, 0.66)</t>
+          <t>0.61 (0.54, 0.67)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.29 (0.23, 0.34)</t>
+          <t>0.77 (0.72, 0.82)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.17 (0.12, 0.21)</t>
+          <t>0.32 (0.26, 0.38)</t>
         </is>
       </c>
     </row>
@@ -932,27 +939,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.61 (0.55, 0.67)</t>
+          <t>0.63 (0.57, 0.69)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.63 (0.57, 0.69)</t>
+          <t>0.62 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.55 (0.48, 0.61)</t>
+          <t>0.53 (0.47, 0.59)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.78 (0.72, 0.83)</t>
+          <t>0.77 (0.72, 0.82)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.39 (0.32, 0.45)</t>
+          <t>0.35 (0.29, 0.41)</t>
         </is>
       </c>
     </row>
@@ -964,27 +971,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.65 (0.59, 0.71)</t>
+          <t>0.66 (0.60, 0.72)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.82 (0.77, 0.87)</t>
+          <t>0.86 (0.81, 0.90)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.31 (0.25, 0.37)</t>
+          <t>0.27 (0.21, 0.32)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.75 (0.70, 0.81)</t>
+          <t>0.75 (0.69, 0.80)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.43 (0.36, 0.49)</t>
+          <t>0.45 (0.39, 0.51)</t>
         </is>
       </c>
     </row>
@@ -1047,27 +1054,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.60 (0.54, 0.66)</t>
+          <t>0.68 (0.62, 0.74)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.82 (0.77, 0.87)</t>
+          <t>0.93 (0.89, 0.96)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.35 (0.29, 0.41)</t>
+          <t>0.15 (0.10, 0.19)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.77 (0.71, 0.82)</t>
+          <t>0.74 (0.68, 0.79)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.45 (0.39, 0.51)</t>
+          <t>0.33 (0.27, 0.39)</t>
         </is>
       </c>
     </row>
@@ -1079,27 +1086,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.61 (0.55, 0.67)</t>
+          <t>0.61 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.79 (0.74, 0.84)</t>
+          <t>0.51 (0.44, 0.57)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.33 (0.27, 0.39)</t>
+          <t>0.61 (0.54, 0.67)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.76 (0.70, 0.81)</t>
+          <t>0.77 (0.72, 0.82)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.40 (0.34, 0.46)</t>
+          <t>0.32 (0.26, 0.38)</t>
         </is>
       </c>
     </row>
@@ -1111,27 +1118,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.56 (0.49, 0.62)</t>
+          <t>0.63 (0.57, 0.70)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.64 (0.58, 0.70)</t>
+          <t>0.62 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.43 (0.37, 0.49)</t>
+          <t>0.53 (0.47, 0.59)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.73 (0.68, 0.79)</t>
+          <t>0.77 (0.72, 0.82)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.33 (0.27, 0.39)</t>
+          <t>0.35 (0.29, 0.41)</t>
         </is>
       </c>
     </row>
@@ -1148,22 +1155,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.86 (0.82, 0.91)</t>
+          <t>0.84 (0.79, 0.89)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.30 (0.24, 0.35)</t>
+          <t>0.27 (0.21, 0.32)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.76 (0.70, 0.81)</t>
+          <t>0.75 (0.69, 0.80)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.49 (0.42, 0.55)</t>
+          <t>0.41 (0.35, 0.48)</t>
         </is>
       </c>
     </row>
@@ -1226,27 +1233,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.66 (0.60, 0.72)</t>
+          <t>0.65 (0.59, 0.71)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.79 (0.74, 0.84)</t>
+          <t>0.93 (0.90, 0.96)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.43 (0.37, 0.49)</t>
+          <t>0.16 (0.12, 0.21)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.78 (0.73, 0.83)</t>
+          <t>0.74 (0.69, 0.80)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.45 (0.38, 0.51)</t>
+          <t>0.38 (0.32, 0.44)</t>
         </is>
       </c>
     </row>
@@ -1258,27 +1265,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.53 (0.47, 0.60)</t>
+          <t>0.62 (0.56, 0.69)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.63 (0.57, 0.69)</t>
+          <t>0.57 (0.51, 0.63)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.48 (0.42, 0.55)</t>
+          <t>0.53 (0.47, 0.59)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.76 (0.71, 0.81)</t>
+          <t>0.76 (0.70, 0.81)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.34 (0.28, 0.40)</t>
+          <t>0.33 (0.27, 0.39)</t>
         </is>
       </c>
     </row>
@@ -1290,27 +1297,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.58 (0.52, 0.64)</t>
+          <t>0.63 (0.57, 0.69)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.68 (0.63, 0.74)</t>
+          <t>0.62 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.43 (0.37, 0.49)</t>
+          <t>0.53 (0.47, 0.59)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.75 (0.70, 0.81)</t>
+          <t>0.77 (0.72, 0.82)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.36 (0.30, 0.42)</t>
+          <t>0.35 (0.29, 0.41)</t>
         </is>
       </c>
     </row>
@@ -1322,12 +1329,907 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>0.61 (0.54, 0.67)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.84 (0.79, 0.89)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.24 (0.18, 0.29)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.74 (0.68, 0.79)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.39 (0.33, 0.45)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Classifier</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>AUC (95% CI)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Sensitivity (95% CI)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Specificity (95% CI)</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>PPV (95% CI)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>NPV (95% CI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.65 (0.59, 0.71)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.94 (0.91, 0.97)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.16 (0.12, 0.21)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.74 (0.69, 0.80)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.52 (0.45, 0.58)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.57 (0.51, 0.63)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.57 (0.51, 0.63)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.53 (0.47, 0.59)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.76 (0.70, 0.81)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.33 (0.27, 0.39)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.63 (0.57, 0.69)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.62 (0.55, 0.68)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53 (0.47, 0.59)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.77 (0.72, 0.82)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.35 (0.29, 0.41)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.60 (0.54, 0.66)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.83 (0.79, 0.88)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28 (0.23, 0.34)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.75 (0.69, 0.80)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.43 (0.37, 0.49)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Classifier</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>AUC (95% CI)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Sensitivity (95% CI)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Specificity (95% CI)</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>PPV (95% CI)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>NPV (95% CI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.65 (0.59, 0.71)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.95 (0.92, 0.98)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.15 (0.10, 0.19)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.74 (0.69, 0.80)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.60 (0.54, 0.66)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.47 (0.41, 0.53)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.85 (0.81, 0.90)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.24 (0.18, 0.29)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.74 (0.69, 0.80)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.38 (0.31, 0.44)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.59 (0.52, 0.65)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.63 (0.57, 0.69)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.47 (0.41, 0.53)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.75 (0.70, 0.81)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.35 (0.29, 0.41)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.60 (0.54, 0.66)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.84 (0.79, 0.89)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.27 (0.21, 0.32)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.74 (0.69, 0.80)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.43 (0.37, 0.49)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Classifier</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>AUC (95% CI)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Sensitivity (95% CI)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Specificity (95% CI)</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>PPV (95% CI)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>NPV (95% CI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.63 (0.57, 0.69)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.93 (0.90, 0.96)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.13 (0.09, 0.18)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.73 (0.68, 0.79)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.30 (0.24, 0.36)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.44 (0.38, 0.51)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.81 (0.76, 0.86)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22 (0.17, 0.27)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.73 (0.67, 0.78)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.34 (0.28, 0.40)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.56 (0.50, 0.63)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.63 (0.57, 0.69)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.47 (0.41, 0.53)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.75 (0.70, 0.81)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.35 (0.29, 0.41)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.58 (0.52, 0.64)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.83 (0.78, 0.88)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.24 (0.18, 0.29)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.73 (0.68, 0.79)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.38 (0.32, 0.44)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Classifier</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>AUC (95% CI)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Sensitivity (95% CI)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Specificity (95% CI)</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>PPV (95% CI)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>NPV (95% CI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.65 (0.59, 0.71)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.95 (0.92, 0.98)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.13 (0.09, 0.18)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.74 (0.68, 0.79)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.57 (0.50, 0.63)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.49 (0.43, 0.56)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.82 (0.77, 0.87)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22 (0.17, 0.27)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.73 (0.67, 0.78)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.35 (0.29, 0.41)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.56 (0.50, 0.63)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.63 (0.57, 0.69)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.47 (0.41, 0.53)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.75 (0.70, 0.81)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.35 (0.29, 0.41)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.59 (0.53, 0.66)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.83 (0.78, 0.88)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.27 (0.21, 0.32)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.74 (0.69, 0.80)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.42 (0.35, 0.48)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Classifier</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>AUC (95% CI)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Sensitivity (95% CI)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Specificity (95% CI)</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>PPV (95% CI)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>NPV (95% CI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>0.64 (0.58, 0.70)</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.94 (0.91, 0.97)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.16 (0.12, 0.21)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.74 (0.69, 0.80)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.59 (0.52, 0.65)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.51 (0.44, 0.57)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.82 (0.77, 0.87)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22 (0.17, 0.27)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.73 (0.67, 0.79)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.35 (0.29, 0.41)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.56 (0.50, 0.63)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.63 (0.57, 0.69)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.47 (0.41, 0.53)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.75 (0.70, 0.81)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.35 (0.29, 0.41)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.60 (0.54, 0.67)</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.85 (0.81, 0.90)</t>
+          <t>0.82 (0.77, 0.87)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1337,12 +2239,191 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.76 (0.70, 0.81)</t>
+          <t>0.75 (0.69, 0.80)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>0.44 (0.37, 0.50)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Classifier</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>AUC (95% CI)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Sensitivity (95% CI)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Specificity (95% CI)</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>PPV (95% CI)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>NPV (95% CI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.65 (0.59, 0.71)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.95 (0.93, 0.98)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.15 (0.10, 0.19)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.74 (0.69, 0.80)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.60 (0.54, 0.66)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>0.46 (0.40, 0.52)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.82 (0.77, 0.87)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22 (0.17, 0.27)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.73 (0.67, 0.79)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.35 (0.29, 0.41)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.56 (0.50, 0.63)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.63 (0.57, 0.69)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.47 (0.41, 0.53)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.75 (0.70, 0.81)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.35 (0.29, 0.41)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.61 (0.55, 0.67)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.82 (0.77, 0.87)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28 (0.22, 0.34)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.74 (0.69, 0.80)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.41 (0.35, 0.48)</t>
         </is>
       </c>
     </row>
@@ -1405,27 +2486,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.59 (0.52, 0.65)</t>
+          <t>0.61 (0.55, 0.67)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.86 (0.82, 0.91)</t>
+          <t>0.84 (0.80, 0.89)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.25 (0.20, 0.31)</t>
+          <t>0.28 (0.22, 0.34)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.75 (0.69, 0.80)</t>
+          <t>0.75 (0.70, 0.80)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.43 (0.37, 0.49)</t>
+          <t>0.45 (0.39, 0.51)</t>
         </is>
       </c>
     </row>
@@ -1437,27 +2518,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>0.63 (0.57, 0.69)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.53 (0.47, 0.59)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.71 (0.65, 0.77)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.82 (0.78, 0.87)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>0.37 (0.31, 0.43)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.40 (0.34, 0.46)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.60 (0.54, 0.66)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.29 (0.23, 0.34)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.17 (0.12, 0.21)</t>
         </is>
       </c>
     </row>
@@ -1469,27 +2550,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.63 (0.57, 0.69)</t>
+          <t>0.64 (0.58, 0.70)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.81 (0.76, 0.86)</t>
+          <t>0.71 (0.65, 0.76)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.18 (0.13, 0.23)</t>
+          <t>0.41 (0.35, 0.48)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.71 (0.66, 0.77)</t>
+          <t>0.76 (0.70, 0.81)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.11 (0.07, 0.15)</t>
+          <t>0.36 (0.30, 0.42)</t>
         </is>
       </c>
     </row>
@@ -1501,27 +2582,206 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>0.65 (0.59, 0.71)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.91 (0.87, 0.94)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16 (0.12, 0.21)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.74 (0.68, 0.79)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.50 (0.44, 0.56)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Classifier</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>AUC (95% CI)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Sensitivity (95% CI)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Specificity (95% CI)</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>PPV (95% CI)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>NPV (95% CI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.65 (0.59, 0.71)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.94 (0.91, 0.97)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.15 (0.10, 0.19)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.74 (0.68, 0.79)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.44 (0.38, 0.50)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.47 (0.41, 0.53)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.83 (0.78, 0.88)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.21 (0.16, 0.26)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.73 (0.67, 0.78)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.34 (0.28, 0.40)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LogisticRegression</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.56 (0.50, 0.63)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>0.63 (0.57, 0.69)</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.47 (0.41, 0.53)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.75 (0.70, 0.81)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.35 (0.29, 0.41)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NaiveBayes</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.61 (0.55, 0.67)</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.93 (0.90, 0.96)</t>
+          <t>0.82 (0.77, 0.87)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.18 (0.13, 0.23)</t>
+          <t>0.30 (0.24, 0.35)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.74 (0.69, 0.80)</t>
+          <t>0.75 (0.69, 0.80)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.59 (0.53, 0.65)</t>
+          <t>0.44 (0.37, 0.50)</t>
         </is>
       </c>
     </row>
@@ -1584,27 +2844,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.61 (0.55, 0.67)</t>
+          <t>0.63 (0.57, 0.69)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.79 (0.74, 0.84)</t>
+          <t>0.87 (0.83, 0.92)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.37 (0.31, 0.43)</t>
+          <t>0.25 (0.20, 0.31)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.76 (0.71, 0.82)</t>
+          <t>0.75 (0.70, 0.80)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.45 (0.39, 0.52)</t>
+          <t>0.44 (0.38, 0.50)</t>
         </is>
       </c>
     </row>
@@ -1616,27 +2876,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>0.61 (0.55, 0.67)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.50 (0.44, 0.56)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>0.63 (0.57, 0.69)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.71 (0.66, 0.77)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.46 (0.39, 0.52)</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.77 (0.71, 0.82)</t>
+          <t>0.78 (0.72, 0.83)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.41 (0.35, 0.47)</t>
+          <t>0.33 (0.27, 0.39)</t>
         </is>
       </c>
     </row>
@@ -1653,7 +2913,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.64 (0.58, 0.70)</t>
+          <t>0.62 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1668,7 +2928,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.38 (0.32, 0.44)</t>
+          <t>0.35 (0.29, 0.41)</t>
         </is>
       </c>
     </row>
@@ -1680,27 +2940,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.63 (0.56, 0.69)</t>
+          <t>0.65 (0.59, 0.71)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.91 (0.87, 0.94)</t>
+          <t>0.90 (0.86, 0.94)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.22 (0.17, 0.28)</t>
+          <t>0.21 (0.16, 0.26)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.75 (0.70, 0.80)</t>
+          <t>0.74 (0.69, 0.80)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.66 (0.60, 0.71)</t>
+          <t>0.56 (0.50, 0.63)</t>
         </is>
       </c>
     </row>
@@ -1763,27 +3023,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.60 (0.54, 0.66)</t>
+          <t>0.69 (0.63, 0.75)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.79 (0.74, 0.84)</t>
+          <t>0.86 (0.81, 0.90)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.33 (0.27, 0.38)</t>
+          <t>0.34 (0.28, 0.40)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.75 (0.69, 0.80)</t>
+          <t>0.77 (0.72, 0.82)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.40 (0.34, 0.46)</t>
+          <t>0.47 (0.40, 0.53)</t>
         </is>
       </c>
     </row>
@@ -1795,27 +3055,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>0.61 (0.55, 0.67)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.51 (0.45, 0.57)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>0.63 (0.57, 0.69)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.71 (0.66, 0.77)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.46 (0.39, 0.52)</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.77 (0.71, 0.82)</t>
+          <t>0.78 (0.73, 0.84)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.41 (0.35, 0.47)</t>
+          <t>0.34 (0.28, 0.40)</t>
         </is>
       </c>
     </row>
@@ -1832,7 +3092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.64 (0.58, 0.70)</t>
+          <t>0.62 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1847,7 +3107,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.38 (0.32, 0.44)</t>
+          <t>0.35 (0.29, 0.41)</t>
         </is>
       </c>
     </row>
@@ -1859,27 +3119,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.63 (0.57, 0.70)</t>
+          <t>0.64 (0.58, 0.70)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.89 (0.85, 0.93)</t>
+          <t>0.87 (0.83, 0.91)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.27 (0.21, 0.32)</t>
+          <t>0.21 (0.16, 0.26)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.76 (0.70, 0.81)</t>
+          <t>0.74 (0.68, 0.79)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.55 (0.48, 0.61)</t>
+          <t>0.50 (0.44, 0.56)</t>
         </is>
       </c>
     </row>
@@ -1942,27 +3202,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.60 (0.54, 0.66)</t>
+          <t>0.68 (0.62, 0.74)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.78 (0.72, 0.83)</t>
+          <t>0.85 (0.81, 0.90)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.40 (0.34, 0.46)</t>
+          <t>0.22 (0.17, 0.27)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.77 (0.71, 0.82)</t>
+          <t>0.74 (0.68, 0.79)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.44 (0.37, 0.50)</t>
+          <t>0.35 (0.29, 0.41)</t>
         </is>
       </c>
     </row>
@@ -1974,27 +3234,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.37 (0.31, 0.43)</t>
+          <t>0.61 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.40 (0.34, 0.46)</t>
+          <t>0.52 (0.46, 0.59)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.60 (0.54, 0.66)</t>
+          <t>0.63 (0.57, 0.69)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.29 (0.23, 0.34)</t>
+          <t>0.79 (0.74, 0.84)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.17 (0.12, 0.21)</t>
+          <t>0.34 (0.28, 0.40)</t>
         </is>
       </c>
     </row>
@@ -2011,22 +3271,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.81 (0.76, 0.86)</t>
+          <t>0.62 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.18 (0.13, 0.23)</t>
+          <t>0.53 (0.47, 0.59)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.71 (0.66, 0.77)</t>
+          <t>0.77 (0.72, 0.82)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.11 (0.07, 0.15)</t>
+          <t>0.35 (0.29, 0.41)</t>
         </is>
       </c>
     </row>
@@ -2038,22 +3298,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.66 (0.60, 0.72)</t>
+          <t>0.64 (0.58, 0.70)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.89 (0.85, 0.93)</t>
+          <t>0.88 (0.84, 0.92)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.25 (0.20, 0.31)</t>
+          <t>0.24 (0.18, 0.29)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.75 (0.70, 0.81)</t>
+          <t>0.74 (0.69, 0.80)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2121,27 +3381,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.63 (0.57, 0.69)</t>
+          <t>0.70 (0.64, 0.76)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.80 (0.75, 0.85)</t>
+          <t>0.89 (0.85, 0.93)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.38 (0.32, 0.44)</t>
+          <t>0.22 (0.17, 0.27)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.77 (0.71, 0.82)</t>
+          <t>0.75 (0.69, 0.80)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.43 (0.37, 0.49)</t>
+          <t>0.54 (0.48, 0.60)</t>
         </is>
       </c>
     </row>
@@ -2153,27 +3413,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.48 (0.42, 0.54)</t>
+          <t>0.61 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.40 (0.34, 0.46)</t>
+          <t>0.52 (0.45, 0.58)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.60 (0.54, 0.66)</t>
+          <t>0.62 (0.56, 0.68)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.29 (0.23, 0.34)</t>
+          <t>0.78 (0.73, 0.83)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.17 (0.12, 0.21)</t>
+          <t>0.33 (0.27, 0.39)</t>
         </is>
       </c>
     </row>
@@ -2190,22 +3450,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.81 (0.76, 0.86)</t>
+          <t>0.62 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.18 (0.13, 0.23)</t>
+          <t>0.53 (0.47, 0.59)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.71 (0.66, 0.77)</t>
+          <t>0.77 (0.72, 0.82)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.11 (0.07, 0.15)</t>
+          <t>0.35 (0.29, 0.41)</t>
         </is>
       </c>
     </row>
@@ -2217,12 +3477,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.67 (0.61, 0.73)</t>
+          <t>0.65 (0.59, 0.71)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.88 (0.84, 0.92)</t>
+          <t>0.86 (0.82, 0.91)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2232,7 +3492,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.75 (0.70, 0.80)</t>
+          <t>0.74 (0.69, 0.80)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2300,27 +3560,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.63 (0.57, 0.69)</t>
+          <t>0.69 (0.63, 0.75)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.79 (0.74, 0.84)</t>
+          <t>0.88 (0.84, 0.93)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.24 (0.19, 0.29)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.75 (0.69, 0.80)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>0.43 (0.36, 0.49)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.78 (0.73, 0.83)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.45 (0.39, 0.51)</t>
         </is>
       </c>
     </row>
@@ -2332,27 +3592,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.38 (0.32, 0.44)</t>
+          <t>0.62 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.86 (0.81, 0.90)</t>
+          <t>0.52 (0.45, 0.58)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.27 (0.21, 0.32)</t>
+          <t>0.62 (0.56, 0.68)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.75 (0.69, 0.80)</t>
+          <t>0.78 (0.73, 0.83)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.48 (0.41, 0.54)</t>
+          <t>0.33 (0.27, 0.39)</t>
         </is>
       </c>
     </row>
@@ -2369,22 +3629,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.76 (0.71, 0.81)</t>
+          <t>0.62 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.29 (0.24, 0.35)</t>
+          <t>0.53 (0.47, 0.59)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.73 (0.68, 0.79)</t>
+          <t>0.77 (0.72, 0.82)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.20 (0.15, 0.25)</t>
+          <t>0.35 (0.29, 0.41)</t>
         </is>
       </c>
     </row>
@@ -2396,27 +3656,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.67 (0.62, 0.73)</t>
+          <t>0.66 (0.60, 0.72)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.88 (0.84, 0.92)</t>
+          <t>0.86 (0.82, 0.91)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.24 (0.18, 0.29)</t>
+          <t>0.27 (0.21, 0.32)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.75 (0.69, 0.80)</t>
+          <t>0.75 (0.70, 0.81)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.50 (0.44, 0.56)</t>
+          <t>0.47 (0.41, 0.54)</t>
         </is>
       </c>
     </row>
@@ -2479,27 +3739,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.62 (0.56, 0.68)</t>
+          <t>0.69 (0.63, 0.74)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.79 (0.74, 0.84)</t>
+          <t>0.90 (0.86, 0.93)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.43 (0.36, 0.49)</t>
+          <t>0.21 (0.15, 0.26)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.78 (0.73, 0.83)</t>
+          <t>0.74 (0.69, 0.80)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.45 (0.39, 0.51)</t>
+          <t>0.46 (0.39, 0.52)</t>
         </is>
       </c>
     </row>
@@ -2511,27 +3771,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.46 (0.40, 0.52)</t>
+          <t>0.61 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.86 (0.81, 0.90)</t>
+          <t>0.51 (0.45, 0.57)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.27 (0.21, 0.32)</t>
+          <t>0.61 (0.54, 0.67)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.75 (0.69, 0.80)</t>
+          <t>0.77 (0.72, 0.82)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.48 (0.41, 0.54)</t>
+          <t>0.32 (0.27, 0.38)</t>
         </is>
       </c>
     </row>
@@ -2548,22 +3808,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.76 (0.71, 0.81)</t>
+          <t>0.62 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.29 (0.24, 0.35)</t>
+          <t>0.53 (0.47, 0.59)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.73 (0.68, 0.79)</t>
+          <t>0.77 (0.72, 0.82)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.20 (0.15, 0.25)</t>
+          <t>0.35 (0.29, 0.41)</t>
         </is>
       </c>
     </row>
@@ -2575,27 +3835,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.67 (0.61, 0.73)</t>
+          <t>0.65 (0.59, 0.71)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.88 (0.84, 0.92)</t>
+          <t>0.85 (0.80, 0.89)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.27 (0.21, 0.32)</t>
+          <t>0.25 (0.20, 0.31)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.76 (0.70, 0.81)</t>
+          <t>0.74 (0.69, 0.80)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.50 (0.44, 0.56)</t>
+          <t>0.43 (0.37, 0.49)</t>
         </is>
       </c>
     </row>
@@ -2658,27 +3918,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.60 (0.54, 0.66)</t>
+          <t>0.67 (0.61, 0.73)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.79 (0.74, 0.84)</t>
+          <t>0.90 (0.86, 0.93)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.37 (0.31, 0.43)</t>
+          <t>0.21 (0.16, 0.26)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.76 (0.71, 0.82)</t>
+          <t>0.74 (0.69, 0.80)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.42 (0.36, 0.48)</t>
+          <t>0.44 (0.38, 0.51)</t>
         </is>
       </c>
     </row>
@@ -2690,27 +3950,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.38 (0.32, 0.44)</t>
+          <t>0.61 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.00 (1.00, 1.00)</t>
+          <t>0.51 (0.45, 0.57)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00 (0.00, 0.00)</t>
+          <t>0.61 (0.54, 0.67)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.72 (0.66, 0.78)</t>
+          <t>0.77 (0.72, 0.82)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.00 (0.00, 0.00)</t>
+          <t>0.32 (0.27, 0.38)</t>
         </is>
       </c>
     </row>
@@ -2722,27 +3982,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.61 (0.55, 0.68)</t>
+          <t>0.63 (0.57, 0.69)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.66 (0.60, 0.72)</t>
+          <t>0.62 (0.55, 0.68)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.43 (0.37, 0.49)</t>
+          <t>0.53 (0.47, 0.59)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.75 (0.70, 0.81)</t>
+          <t>0.77 (0.72, 0.82)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.27 (0.21, 0.33)</t>
+          <t>0.35 (0.29, 0.41)</t>
         </is>
       </c>
     </row>
@@ -2759,7 +4019,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.86 (0.82, 0.91)</t>
+          <t>0.85 (0.80, 0.89)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2769,12 +4029,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.75 (0.70, 0.81)</t>
+          <t>0.75 (0.69, 0.80)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.45 (0.39, 0.51)</t>
+          <t>0.44 (0.38, 0.51)</t>
         </is>
       </c>
     </row>
